--- a/data/ongoing_projects.xlsx
+++ b/data/ongoing_projects.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Resource Name</t>
   </si>
@@ -86,15 +86,9 @@
     <t>AI</t>
   </si>
   <si>
-    <t>AI,DQ,DM</t>
-  </si>
-  <si>
     <t>DM,DQ</t>
   </si>
   <si>
-    <t>DG</t>
-  </si>
-  <si>
     <t>Akram</t>
   </si>
   <si>
@@ -129,6 +123,18 @@
   </si>
   <si>
     <t>Ongoing Project</t>
+  </si>
+  <si>
+    <t>AI Lead</t>
+  </si>
+  <si>
+    <t>DQ Lead,DM Lead</t>
+  </si>
+  <si>
+    <t>AI,DQ,DM,Coordinator</t>
+  </si>
+  <si>
+    <t>DG,DRM</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -169,7 +175,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +459,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +468,7 @@
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
     <col min="3" max="3" width="14.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
     <col min="6" max="6" width="28.90625" customWidth="1"/>
     <col min="7" max="7" width="14.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -473,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -485,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -508,10 +514,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1">
         <v>44562</v>
@@ -534,10 +540,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>44562</v>
@@ -557,13 +563,13 @@
         <v>44197</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>44562</v>
@@ -586,10 +592,10 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1">
         <v>44562</v>
@@ -612,10 +618,10 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>44805</v>
@@ -638,10 +644,10 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
         <v>44774</v>
@@ -667,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1">
         <v>44562</v>
@@ -693,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1">
         <v>44562</v>
@@ -719,7 +725,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1">
         <v>44743</v>
@@ -742,10 +748,10 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1">
         <v>44562</v>
@@ -771,7 +777,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1">
         <v>44743</v>
@@ -794,21 +800,21 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <v>44743</v>
       </c>
       <c r="H13" s="1">
-        <v>44926</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -820,10 +826,10 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1">
         <v>44713</v>
@@ -834,7 +840,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -846,10 +852,10 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1">
         <v>44713</v>
